--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2816168.024642544</v>
+        <v>2813915.944931339</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.74868616823362</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.6335400441264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666501</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>384.7884220047742</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278333</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>226.5160573110182</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065913</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>177.2979137777583</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>18.62842651468758</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.8829459347446</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.9220940686583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.63412424768206</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
-        <v>65.56423921895123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4373,7 +4373,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,31 +4428,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1319.603231339825</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547619</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>402.9356658273847</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,19 +4729,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.974108378889</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V7" t="n">
-        <v>1162.289620173002</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.289620173002</v>
+        <v>812.5736815556418</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.289620173002</v>
+        <v>584.5841306576244</v>
       </c>
       <c r="Y7" t="n">
-        <v>941.4970410294717</v>
+        <v>584.5841306576244</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>578.5476590249488</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3146.517019813456</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5809963705858</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008255</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,22 +5069,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>186.6449060441816</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2074.122646505557</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2497.745796000625</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>37.12601365260463</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7017074173501499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.66255928343645</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>154.8900140445868</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>40.23897475306337</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6825818796766</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.3947522799763</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135018</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380337</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26418,37 +26418,37 @@
         <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818189</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12996.86414683047</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="H4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12996.86414683045</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683042</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691343</v>
+        <v>-851503.1250691338</v>
       </c>
       <c r="C6" t="n">
-        <v>477241.6206584588</v>
+        <v>477241.6206584589</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584584</v>
+        <v>477241.6206584582</v>
       </c>
       <c r="E6" t="n">
-        <v>226364.0889661621</v>
+        <v>226329.3510407268</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735173</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="G6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.8128480812</v>
       </c>
       <c r="H6" t="n">
-        <v>551776.5507735171</v>
+        <v>551741.8128480819</v>
       </c>
       <c r="I6" t="n">
-        <v>551776.5507735173</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="J6" t="n">
-        <v>334245.3483762398</v>
+        <v>334210.6104508043</v>
       </c>
       <c r="K6" t="n">
-        <v>551776.5507735173</v>
+        <v>551741.8128480819</v>
       </c>
       <c r="L6" t="n">
-        <v>551776.5507735176</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="M6" t="n">
-        <v>466721.5228380056</v>
+        <v>466686.7849125699</v>
       </c>
       <c r="N6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="O6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="P6" t="n">
-        <v>551776.5507735173</v>
+        <v>551741.8128480818</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112248</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>20.18346650181373</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>160.8894582924646</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068155</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.449516651279396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>59.69578089459463</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468622</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.62005636186188</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>148.6183945839402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,31 +31844,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110996</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868849</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32564,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32704,10 +32704,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8454457931495</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>270.9716933356906</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.8462560123214</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312254</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.6798975070108</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36212,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,22 +36437,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>205.0040068187905</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558164</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.86448192629984</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
